--- a/Ganntt Chart.xlsx
+++ b/Ganntt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS6440\hypertension-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7344FDF7-713F-4AF7-B501-DEBACEF8708B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5418554C-59AB-4514-B370-41747533A398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{09F9B11A-14FB-4791-8A1E-72D0FB5BAB6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
   <si>
     <t>Legend:</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Deploy to Gitlab Pages</t>
+  </si>
+  <si>
+    <t>Postponed</t>
   </si>
 </sst>
 </file>
@@ -660,39 +663,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -740,6 +710,39 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14260DE-294B-440C-8E6C-2A752FF106DF}">
   <dimension ref="A2:BK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1077,44 +1080,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:63" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:63" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28">
+      <c r="C3" s="51"/>
+      <c r="D3" s="52">
         <v>44851</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="E3" s="53"/>
+      <c r="J3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="35" t="s">
+      <c r="R3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="36" t="s">
+      <c r="V3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
     </row>
     <row r="4" spans="1:63" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
@@ -1122,66 +1125,66 @@
       </c>
     </row>
     <row r="5" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="37" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="37" t="s">
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="27"/>
+      <c r="BA5" s="30"/>
+      <c r="BB5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="27"/>
+      <c r="BE5" s="27"/>
+      <c r="BF5" s="27"/>
+      <c r="BG5" s="27"/>
+      <c r="BH5" s="27"/>
+      <c r="BI5" s="27"/>
     </row>
     <row r="6" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H6" s="4">
@@ -1190,43 +1193,43 @@
       <c r="I6" s="2">
         <v>18</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="31">
         <v>19</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="31">
         <v>20</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="31">
         <v>21</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="31">
         <v>22</v>
       </c>
       <c r="N6" s="2">
         <v>23</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="32">
         <v>24</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="31">
         <v>25</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="31">
         <v>26</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="31">
         <v>27</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="31">
         <v>28</v>
       </c>
-      <c r="T6" s="42">
+      <c r="T6" s="31">
         <v>29</v>
       </c>
-      <c r="U6" s="42">
+      <c r="U6" s="31">
         <v>30</v>
       </c>
-      <c r="V6" s="43">
+      <c r="V6" s="32">
         <v>31</v>
       </c>
       <c r="W6" s="2">
@@ -1250,46 +1253,46 @@
       <c r="AC6" s="4">
         <v>7</v>
       </c>
-      <c r="AD6" s="42">
+      <c r="AD6" s="31">
         <v>8</v>
       </c>
-      <c r="AE6" s="42">
+      <c r="AE6" s="31">
         <v>9</v>
       </c>
-      <c r="AF6" s="42">
+      <c r="AF6" s="31">
         <v>10</v>
       </c>
-      <c r="AG6" s="42">
+      <c r="AG6" s="31">
         <v>11</v>
       </c>
-      <c r="AH6" s="42">
+      <c r="AH6" s="31">
         <v>12</v>
       </c>
       <c r="AI6" s="2">
         <v>13</v>
       </c>
-      <c r="AJ6" s="43">
+      <c r="AJ6" s="32">
         <v>14</v>
       </c>
-      <c r="AK6" s="42">
+      <c r="AK6" s="31">
         <v>15</v>
       </c>
-      <c r="AL6" s="42">
+      <c r="AL6" s="31">
         <v>16</v>
       </c>
-      <c r="AM6" s="42">
+      <c r="AM6" s="31">
         <v>17</v>
       </c>
-      <c r="AN6" s="42">
+      <c r="AN6" s="31">
         <v>18</v>
       </c>
-      <c r="AO6" s="42">
+      <c r="AO6" s="31">
         <v>19</v>
       </c>
-      <c r="AP6" s="42">
+      <c r="AP6" s="31">
         <v>20</v>
       </c>
-      <c r="AQ6" s="43">
+      <c r="AQ6" s="32">
         <v>21</v>
       </c>
       <c r="AR6" s="2">
@@ -1310,28 +1313,28 @@
       <c r="AW6" s="3">
         <v>27</v>
       </c>
-      <c r="AX6" s="43">
+      <c r="AX6" s="32">
         <v>28</v>
       </c>
-      <c r="AY6" s="42">
+      <c r="AY6" s="31">
         <v>29</v>
       </c>
-      <c r="AZ6" s="42">
+      <c r="AZ6" s="31">
         <v>30</v>
       </c>
-      <c r="BA6" s="42">
+      <c r="BA6" s="31">
         <v>1</v>
       </c>
-      <c r="BB6" s="42">
+      <c r="BB6" s="31">
         <v>2</v>
       </c>
-      <c r="BC6" s="42">
+      <c r="BC6" s="31">
         <v>3</v>
       </c>
-      <c r="BD6" s="42">
+      <c r="BD6" s="31">
         <v>4</v>
       </c>
-      <c r="BE6" s="43">
+      <c r="BE6" s="32">
         <v>5</v>
       </c>
       <c r="BF6" s="2">
@@ -1343,85 +1346,85 @@
       <c r="BH6" s="2">
         <v>8</v>
       </c>
-      <c r="BI6" s="44">
+      <c r="BI6" s="33">
         <v>9</v>
       </c>
-      <c r="BJ6" s="45"/>
-      <c r="BK6" s="45"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="34"/>
     </row>
     <row r="7" spans="1:63" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="30" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="30" t="s">
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="30" t="s">
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="30" t="s">
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="30" t="s">
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="30" t="s">
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+      <c r="AT7" s="48"/>
+      <c r="AU7" s="48"/>
+      <c r="AV7" s="48"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AY7" s="31"/>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="31"/>
-      <c r="BB7" s="31"/>
-      <c r="BC7" s="31"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="46" t="s">
+      <c r="AY7" s="48"/>
+      <c r="AZ7" s="48"/>
+      <c r="BA7" s="48"/>
+      <c r="BB7" s="48"/>
+      <c r="BC7" s="48"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="BF7" s="47"/>
-      <c r="BG7" s="47"/>
-      <c r="BH7" s="47"/>
-      <c r="BI7" s="48"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="49"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="37"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
     </row>
     <row r="8" spans="1:63" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
@@ -1602,14 +1605,14 @@
       <c r="BH8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BI8" s="50" t="s">
+      <c r="BI8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="BJ8" s="45"/>
-      <c r="BK8" s="45"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="34"/>
     </row>
     <row r="9" spans="1:63" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -1681,14 +1684,14 @@
       <c r="BF9" s="10"/>
       <c r="BG9" s="10"/>
       <c r="BH9" s="10"/>
-      <c r="BI9" s="52"/>
+      <c r="BI9" s="41"/>
     </row>
     <row r="10" spans="1:63" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>32</v>
@@ -1713,24 +1716,24 @@
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
       <c r="AL10" s="11"/>
@@ -1756,10 +1759,10 @@
       <c r="BF10" s="11"/>
       <c r="BG10" s="11"/>
       <c r="BH10" s="11"/>
-      <c r="BI10" s="53"/>
+      <c r="BI10" s="42"/>
     </row>
     <row r="11" spans="1:63" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -1831,13 +1834,13 @@
       <c r="BF11" s="11"/>
       <c r="BG11" s="11"/>
       <c r="BH11" s="11"/>
-      <c r="BI11" s="53"/>
+      <c r="BI11" s="42"/>
     </row>
     <row r="12" spans="1:63" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1906,13 +1909,13 @@
       <c r="BF12" s="11"/>
       <c r="BG12" s="11"/>
       <c r="BH12" s="11"/>
-      <c r="BI12" s="53"/>
+      <c r="BI12" s="42"/>
     </row>
     <row r="13" spans="1:63" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -1981,10 +1984,10 @@
       <c r="BF13" s="11"/>
       <c r="BG13" s="11"/>
       <c r="BH13" s="11"/>
-      <c r="BI13" s="53"/>
+      <c r="BI13" s="42"/>
     </row>
     <row r="14" spans="1:63" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -2056,13 +2059,13 @@
       <c r="BF14" s="11"/>
       <c r="BG14" s="11"/>
       <c r="BH14" s="11"/>
-      <c r="BI14" s="53"/>
+      <c r="BI14" s="42"/>
     </row>
     <row r="15" spans="1:63" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -2084,7 +2087,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="56"/>
+      <c r="N15" s="45"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -2131,13 +2134,13 @@
       <c r="BF15" s="11"/>
       <c r="BG15" s="11"/>
       <c r="BH15" s="11"/>
-      <c r="BI15" s="53"/>
+      <c r="BI15" s="42"/>
     </row>
     <row r="16" spans="1:63" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -2206,10 +2209,10 @@
       <c r="BF16" s="11"/>
       <c r="BG16" s="11"/>
       <c r="BH16" s="11"/>
-      <c r="BI16" s="53"/>
+      <c r="BI16" s="42"/>
     </row>
     <row r="17" spans="1:61" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2281,10 +2284,10 @@
       <c r="BF17" s="11"/>
       <c r="BG17" s="11"/>
       <c r="BH17" s="11"/>
-      <c r="BI17" s="53"/>
+      <c r="BI17" s="42"/>
     </row>
     <row r="18" spans="1:61" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="40" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -2356,10 +2359,10 @@
       <c r="BF18" s="20"/>
       <c r="BG18" s="20"/>
       <c r="BH18" s="20"/>
-      <c r="BI18" s="57"/>
+      <c r="BI18" s="46"/>
     </row>
     <row r="19" spans="1:61" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="40" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -2431,25 +2434,25 @@
       <c r="BF19" s="20"/>
       <c r="BG19" s="20"/>
       <c r="BH19" s="20"/>
-      <c r="BI19" s="57"/>
+      <c r="BI19" s="46"/>
     </row>
     <row r="20" spans="1:61" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:61" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="O7:U7"/>
     <mergeCell ref="AC7:AI7"/>
     <mergeCell ref="AJ7:AP7"/>
     <mergeCell ref="AQ7:AW7"/>
     <mergeCell ref="AX7:BD7"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="V3:X3"/>
-    <mergeCell ref="O7:U7"/>
     <mergeCell ref="V7:AB7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
